--- a/chapter10/Chapter10-HW.xlsx
+++ b/chapter10/Chapter10-HW.xlsx
@@ -10,7 +10,6 @@
     <sheet name="training" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="S">#REF!</definedName>
     <definedName name="T">training!$A$2:$G$1148</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -544,7 +543,7 @@
   <dimension ref="A1:G1148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
